--- a/program/results/result_v024_lin_square/analyze.xlsx
+++ b/program/results/result_v024_lin_square/analyze.xlsx
@@ -439,7 +439,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-300.0557703236748</v>
+        <v>19.2684224633017</v>
       </c>
     </row>
     <row r="2">
@@ -449,7 +449,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1946220623955085</v>
+        <v>0.01389687581293539</v>
       </c>
     </row>
     <row r="3">
@@ -459,7 +459,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>139.1935283490089</v>
+        <v>4.06999050969416</v>
       </c>
     </row>
     <row r="4">
@@ -469,7 +469,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3324450366422385</v>
+        <v>0.0220020348933847</v>
       </c>
     </row>
     <row r="5">
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005555230913494191</v>
+        <v>0.00645471981323209</v>
       </c>
     </row>
   </sheetData>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>43.31933601756947</v>
+        <v>509.9572334113724</v>
       </c>
     </row>
     <row r="2">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1889232155820935</v>
+        <v>0.3727694763982197</v>
       </c>
     </row>
     <row r="3">
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>319.7730657743526</v>
+        <v>167.719809161503</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3521262875289238</v>
+        <v>0.6304746008996778</v>
       </c>
     </row>
     <row r="5">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01373536461643143</v>
+        <v>0.03063157894736834</v>
       </c>
     </row>
   </sheetData>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-253.4392747279903</v>
+        <v>113.0683247674126</v>
       </c>
     </row>
     <row r="2">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.211014818853817</v>
+        <v>0.1169059129105699</v>
       </c>
     </row>
     <row r="3">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>243.3955257274448</v>
+        <v>234.0658328526081</v>
       </c>
     </row>
     <row r="4">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3168106861090593</v>
+        <v>0.3413988826330796</v>
       </c>
     </row>
     <row r="5">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03063157894736057</v>
+        <v>0.003022132618941686</v>
       </c>
     </row>
   </sheetData>
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-337.4146364269395</v>
+        <v>1.736317898301202</v>
       </c>
     </row>
     <row r="2">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2365149647494862</v>
+        <v>0.08380335974303928</v>
       </c>
     </row>
     <row r="3">
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>201.841911174535</v>
+        <v>187.2738993699445</v>
       </c>
     </row>
     <row r="4">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3454257744060601</v>
+        <v>0.2951058201058201</v>
       </c>
     </row>
     <row r="5">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03063157894736834</v>
+        <v>0.02283830203591497</v>
       </c>
     </row>
   </sheetData>
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-142.3341166979316</v>
+        <v>-151.6749994699073</v>
       </c>
     </row>
     <row r="2">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08698988074220372</v>
+        <v>0.0892210890093012</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.20147830866571</v>
+        <v>9.559693036558819</v>
       </c>
     </row>
     <row r="4">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-269.1113395901071</v>
+        <v>104.6582338340367</v>
       </c>
     </row>
     <row r="2">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2180764444190271</v>
+        <v>0.09023343700330312</v>
       </c>
     </row>
     <row r="3">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>246.2718394867618</v>
+        <v>194.9559415864318</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3327880007698442</v>
+        <v>0.3366552901023863</v>
       </c>
     </row>
     <row r="5">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03063157894727842</v>
+        <v>0.004996300470746506</v>
       </c>
     </row>
   </sheetData>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-306.1925990800375</v>
+        <v>41.45992792611718</v>
       </c>
     </row>
     <row r="2">
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2267620443268575</v>
+        <v>0.09004084649207754</v>
       </c>
     </row>
     <row r="3">
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>219.5807776759697</v>
+        <v>214.9264096837238</v>
       </c>
     </row>
     <row r="4">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3294487340049633</v>
+        <v>0.3293957909029193</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03063157894736479</v>
+        <v>0.003662971352532907</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-321.3054391315662</v>
+        <v>8.574089992994974</v>
       </c>
     </row>
     <row r="2">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2144118706232359</v>
+        <v>0.04400419838305715</v>
       </c>
     </row>
     <row r="3">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.2105154435148</v>
+        <v>144.4983498841517</v>
       </c>
     </row>
     <row r="4">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3227779209257828</v>
+        <v>0.2798692810385432</v>
       </c>
     </row>
     <row r="5">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05107799876822738</v>
+        <v>3.496098302857575e-06</v>
       </c>
     </row>
   </sheetData>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-278.9999839169886</v>
+        <v>88.11031243865916</v>
       </c>
     </row>
     <row r="2">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2222528926735918</v>
+        <v>0.09858464348954643</v>
       </c>
     </row>
     <row r="3">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>244.0541894058697</v>
+        <v>216.5178863107904</v>
       </c>
     </row>
     <row r="4">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3327880007698442</v>
+        <v>0.3523480662983343</v>
       </c>
     </row>
     <row r="5">
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03063157894736834</v>
+        <v>0.005184608318019035</v>
       </c>
     </row>
   </sheetData>
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-278.8654759935469</v>
+        <v>76.67004503235282</v>
       </c>
     </row>
     <row r="2">
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2186276893694938</v>
+        <v>0.1082590709628687</v>
       </c>
     </row>
     <row r="3">
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>233.7191294507396</v>
+        <v>239.6282448837826</v>
       </c>
     </row>
     <row r="4">
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.318956134627369</v>
+        <v>0.3211290988661151</v>
       </c>
     </row>
     <row r="5">
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02514414254713038</v>
+        <v>0.0002702903887937813</v>
       </c>
     </row>
   </sheetData>
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-355.9623354615572</v>
+        <v>-47.84407976039588</v>
       </c>
     </row>
     <row r="2">
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2205212876690356</v>
+        <v>0.03139568220855526</v>
       </c>
     </row>
     <row r="3">
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.91004657867347</v>
+        <v>96.17813541700045</v>
       </c>
     </row>
     <row r="4">
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3249817237685523</v>
+        <v>0.1655558999303784</v>
       </c>
     </row>
     <row r="5">
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1100899327949285</v>
+        <v>0.0001332686447474973</v>
       </c>
     </row>
   </sheetData>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-494.5579447682663</v>
+        <v>-212.6825064141984</v>
       </c>
     </row>
     <row r="2">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3042220418220345</v>
+        <v>0.1423363228598626</v>
       </c>
     </row>
     <row r="3">
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.50852002881844</v>
+        <v>117.6170553423616</v>
       </c>
     </row>
     <row r="4">
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3790543537738795</v>
+        <v>0.2795816422409105</v>
       </c>
     </row>
     <row r="5">
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.213088723453595</v>
+        <v>0.0923120270783625</v>
       </c>
     </row>
   </sheetData>
